--- a/inutile/Planif-SOFA.xlsx
+++ b/inutile/Planif-SOFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\201440740\Desktop\Le-Biere-Pong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivier\Desktop\Intégration SIM\Le-Biere-Pong\inutile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Semaine du 8 février</t>
   </si>
@@ -143,10 +143,19 @@
     <t>Semaines</t>
   </si>
   <si>
-    <t>Checklist</t>
-  </si>
-  <si>
-    <t>✓</t>
+    <t>Tâche restante</t>
+  </si>
+  <si>
+    <t>Mode Histoire(Effet caméra saoul, Plusieurs boissons?)</t>
+  </si>
+  <si>
+    <t>GestionÉvénements(Verres, Tour à qui?, Score, Fin de partie)</t>
+  </si>
+  <si>
+    <t>ATH(Score, changer commandes lancer?)</t>
+  </si>
+  <si>
+    <t>Simon: Réseau jusqu'à la toute fin</t>
   </si>
 </sst>
 </file>
@@ -524,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E5" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,9 +544,10 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="98" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -547,16 +557,20 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,11 +580,12 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,11 +593,12 @@
         <v>29</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -590,11 +606,12 @@
         <v>27</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="6"/>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,11 +619,9 @@
         <v>30</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -616,11 +631,9 @@
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -628,11 +641,9 @@
         <v>22</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -642,7 +653,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -653,7 +664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -662,7 +673,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -671,7 +682,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -682,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -691,7 +702,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -702,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
